--- a/biology/Botanique/Rosa_×francofurtana/Rosa_×francofurtana.xlsx
+++ b/biology/Botanique/Rosa_×francofurtana/Rosa_×francofurtana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97francofurtana</t>
+          <t>Rosa_×francofurtana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rosiers de Francfort (Rosa ×francofurtana) sont une section d'hybrides de Rosa gallica et de Rosa majalis[1]. Ces hybrides appartiennent au groupe des « rosiers galliques ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rosiers de Francfort (Rosa ×francofurtana) sont une section d'hybrides de Rosa gallica et de Rosa majalis. Ces hybrides appartiennent au groupe des « rosiers galliques ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97francofurtana</t>
+          <t>Rosa_×francofurtana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rosa ×francofurtana</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa ×francofurtana ou 'rose de Francfort' a déjà été mentionnée par Celsus en 1583. Il a été retrouvé au XVIIIe siècle. D'une hauteur d'1 m il présente des tiges presque inermes, des feuilles à 5 à7 folioles à bords dentés et en juin de grandes (8 cm) fleurs plates semi-doubles, rose intense.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97francofurtana</t>
+          <t>Rosa_×francofurtana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>formes et hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>'Agatha' proche de Rosa ×francofurtana type, mais plus vigoureux et aux fleurs, un peu plus petites, parfumées.
 'Impératrice Joséphine', Rosa ×francofurtana Thory, Descemet, 1815, dont on ne sait pas s'il s'agit d'une forme ou d'un hybride de Rosa ×francofurtana. Ses fleurs sont doubles, formées de pétales rose intense et ondulés
